--- a/data_month/zb/能源/能源主要产品产量/石脑油.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/石脑油.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2998 +454,3480 @@
           <t>石脑油产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>石脑油产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>46.4</v>
-      </c>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>60.42</v>
+        <v>75.86</v>
       </c>
       <c r="D2" t="n">
-        <v>654.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>93.90000000000001</v>
+        <v>75.86</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>75.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.8</v>
+        <v>151.3</v>
       </c>
       <c r="C3" t="n">
-        <v>47.6</v>
+        <v>62.48</v>
       </c>
       <c r="D3" t="n">
-        <v>701.84</v>
+        <v>138.34</v>
       </c>
       <c r="E3" t="n">
-        <v>85.90000000000001</v>
+        <v>146.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>62.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-33.9</v>
+        <v>104.8</v>
       </c>
       <c r="C4" t="n">
-        <v>52.66</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>878.3200000000001</v>
+        <v>217.76</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.2</v>
+        <v>133.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.41999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>134.4</v>
+      </c>
       <c r="C5" t="n">
-        <v>75.86</v>
+        <v>66.09</v>
       </c>
       <c r="D5" t="n">
-        <v>75.86</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>283.85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66.09000000000003</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.3</v>
+        <v>77.5</v>
       </c>
       <c r="C6" t="n">
-        <v>62.48</v>
+        <v>58.09</v>
       </c>
       <c r="D6" t="n">
-        <v>138.34</v>
+        <v>343.54</v>
       </c>
       <c r="E6" t="n">
-        <v>146.3</v>
+        <v>124.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59.69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.8</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
-        <v>72.59999999999999</v>
+        <v>60.03</v>
       </c>
       <c r="D7" t="n">
-        <v>217.76</v>
+        <v>403.57</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2</v>
+        <v>120.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60.02999999999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.4</v>
+        <v>79.8</v>
       </c>
       <c r="C8" t="n">
-        <v>66.09</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>283.85</v>
+        <v>469.48</v>
       </c>
       <c r="E8" t="n">
-        <v>133.5</v>
+        <v>113.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>65.91000000000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>58.09</v>
+        <v>62.16</v>
       </c>
       <c r="D9" t="n">
-        <v>343.54</v>
+        <v>531.66</v>
       </c>
       <c r="E9" t="n">
-        <v>124.9</v>
+        <v>109.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62.17999999999995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97</v>
+        <v>47.2</v>
       </c>
       <c r="C10" t="n">
-        <v>60.03</v>
+        <v>62.2</v>
       </c>
       <c r="D10" t="n">
-        <v>403.57</v>
+        <v>593.83</v>
       </c>
       <c r="E10" t="n">
-        <v>120.3</v>
+        <v>100.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62.17000000000007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.8</v>
+        <v>46.4</v>
       </c>
       <c r="C11" t="n">
-        <v>65.93000000000001</v>
+        <v>60.42</v>
       </c>
       <c r="D11" t="n">
-        <v>469.48</v>
+        <v>654.25</v>
       </c>
       <c r="E11" t="n">
-        <v>113.5</v>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60.41999999999996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.40000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C12" t="n">
-        <v>62.16</v>
+        <v>47.6</v>
       </c>
       <c r="D12" t="n">
-        <v>531.66</v>
+        <v>701.84</v>
       </c>
       <c r="E12" t="n">
-        <v>109.4</v>
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>47.59000000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.2</v>
+        <v>-33.9</v>
       </c>
       <c r="C13" t="n">
-        <v>62.2</v>
+        <v>52.66</v>
       </c>
       <c r="D13" t="n">
-        <v>593.83</v>
+        <v>878.3200000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>100.5</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>176.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.9</v>
+        <v>-16.0396049743129</v>
       </c>
       <c r="C14" t="n">
-        <v>156.6</v>
+        <v>100.517395</v>
       </c>
       <c r="D14" t="n">
-        <v>1254.52</v>
+        <v>100.517395</v>
       </c>
       <c r="E14" t="n">
-        <v>10.1</v>
+        <v>-16.0396049743129</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100.517395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.1</v>
+        <v>-11.4</v>
       </c>
       <c r="C15" t="n">
-        <v>159.49</v>
+        <v>101.35</v>
       </c>
       <c r="D15" t="n">
-        <v>1413.96</v>
+        <v>201.88</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1</v>
+        <v>-13.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>101.362605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.7</v>
+        <v>-4.7</v>
       </c>
       <c r="C16" t="n">
-        <v>168.34</v>
+        <v>117.34</v>
       </c>
       <c r="D16" t="n">
-        <v>1582.29</v>
+        <v>319.33</v>
       </c>
       <c r="E16" t="n">
-        <v>13.3</v>
+        <v>-10.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>117.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.0396049743129</v>
+        <v>-1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>100.517395</v>
+        <v>106.07</v>
       </c>
       <c r="D17" t="n">
-        <v>100.517395</v>
+        <v>425.98</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.0396049743129</v>
+        <v>-8.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>106.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11.4</v>
+        <v>15.8</v>
       </c>
       <c r="C18" t="n">
-        <v>101.35</v>
+        <v>115.21</v>
       </c>
       <c r="D18" t="n">
-        <v>201.88</v>
+        <v>543.79</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.8</v>
+        <v>-4.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>117.8099999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.7</v>
+        <v>13.0697341849958</v>
       </c>
       <c r="C19" t="n">
-        <v>117.34</v>
+        <v>125.06857</v>
       </c>
       <c r="D19" t="n">
-        <v>319.33</v>
+        <v>684.676441</v>
       </c>
       <c r="E19" t="n">
-        <v>-10.6</v>
+        <v>-2.63694808776815</v>
+      </c>
+      <c r="F19" t="n">
+        <v>140.886441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.4</v>
+        <v>22.7974856959768</v>
       </c>
       <c r="C20" t="n">
-        <v>106.07</v>
+        <v>128.558989</v>
       </c>
       <c r="D20" t="n">
-        <v>425.98</v>
+        <v>811.63843</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.4</v>
+        <v>0.269906617915716</v>
+      </c>
+      <c r="F20" t="n">
+        <v>126.961989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.8</v>
+        <v>30.2</v>
       </c>
       <c r="C21" t="n">
-        <v>115.21</v>
+        <v>137.5</v>
       </c>
       <c r="D21" t="n">
-        <v>543.79</v>
+        <v>949.35</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.5</v>
+        <v>3.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>137.7115700000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.0697341849958</v>
+        <v>35.3013186536644</v>
       </c>
       <c r="C22" t="n">
-        <v>125.06857</v>
+        <v>148.531018</v>
       </c>
       <c r="D22" t="n">
-        <v>684.676441</v>
+        <v>1097.885986</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.63694808776815</v>
+        <v>7.11981112656079</v>
+      </c>
+      <c r="F22" t="n">
+        <v>148.535986</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.7974856959768</v>
+        <v>36.9</v>
       </c>
       <c r="C23" t="n">
-        <v>128.558989</v>
+        <v>156.6</v>
       </c>
       <c r="D23" t="n">
-        <v>811.63843</v>
+        <v>1254.52</v>
       </c>
       <c r="E23" t="n">
-        <v>0.269906617915716</v>
+        <v>10.1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>156.634014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.2</v>
+        <v>106.1</v>
       </c>
       <c r="C24" t="n">
-        <v>137.5</v>
+        <v>159.49</v>
       </c>
       <c r="D24" t="n">
-        <v>949.35</v>
+        <v>1413.96</v>
       </c>
       <c r="E24" t="n">
-        <v>3.7</v>
+        <v>16.1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>159.4400000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.3013186536644</v>
+        <v>93.7</v>
       </c>
       <c r="C25" t="n">
-        <v>148.531018</v>
+        <v>168.34</v>
       </c>
       <c r="D25" t="n">
-        <v>1097.885986</v>
+        <v>1582.29</v>
       </c>
       <c r="E25" t="n">
-        <v>7.11981112656079</v>
+        <v>13.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>168.3299999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.4589693147838</v>
+        <v>90.2077151335312</v>
       </c>
       <c r="C26" t="n">
-        <v>211.217206</v>
+        <v>192.470384</v>
       </c>
       <c r="D26" t="n">
-        <v>2075.12152</v>
+        <v>192.470384</v>
       </c>
       <c r="E26" t="n">
-        <v>48.7354850354782</v>
+        <v>90.2077151335312</v>
+      </c>
+      <c r="F26" t="n">
+        <v>192.470384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17.8</v>
+        <v>77.80687631440971</v>
       </c>
       <c r="C27" t="n">
-        <v>208.3</v>
+        <v>182.07688</v>
       </c>
       <c r="D27" t="n">
-        <v>2295.6</v>
+        <v>374.547264</v>
       </c>
       <c r="E27" t="n">
-        <v>46</v>
+        <v>84.19583110078371</v>
+      </c>
+      <c r="F27" t="n">
+        <v>182.07688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.4</v>
+        <v>49.2</v>
       </c>
       <c r="C28" t="n">
-        <v>231.7</v>
+        <v>188.8</v>
       </c>
       <c r="D28" t="n">
-        <v>2527.3</v>
+        <v>565.4</v>
       </c>
       <c r="E28" t="n">
-        <v>44.3</v>
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>190.852736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.2077151335312</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>192.470384</v>
+        <v>210.1</v>
       </c>
       <c r="D29" t="n">
-        <v>192.470384</v>
+        <v>777.7</v>
       </c>
       <c r="E29" t="n">
-        <v>90.2077151335312</v>
+        <v>73.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.3000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.80687631440971</v>
+        <v>54.3560596019335</v>
       </c>
       <c r="C30" t="n">
-        <v>182.07688</v>
+        <v>204.671049</v>
       </c>
       <c r="D30" t="n">
-        <v>374.547264</v>
+        <v>1002.67374</v>
       </c>
       <c r="E30" t="n">
-        <v>84.19583110078371</v>
+        <v>66.8308072229751</v>
+      </c>
+      <c r="F30" t="n">
+        <v>224.9737399999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.2</v>
+        <v>50.4</v>
       </c>
       <c r="C31" t="n">
-        <v>188.8</v>
+        <v>214.1</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4</v>
+        <v>1216.4</v>
       </c>
       <c r="E31" t="n">
-        <v>71.90000000000001</v>
+        <v>60.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>213.7262600000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.09999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="C32" t="n">
-        <v>210.1</v>
+        <v>217</v>
       </c>
       <c r="D32" t="n">
-        <v>777.7</v>
+        <v>1433.9</v>
       </c>
       <c r="E32" t="n">
-        <v>73.7</v>
+        <v>58.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>217.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.3560596019335</v>
+        <v>37.7</v>
       </c>
       <c r="C33" t="n">
-        <v>204.671049</v>
+        <v>214</v>
       </c>
       <c r="D33" t="n">
-        <v>1002.67374</v>
+        <v>1647.5</v>
       </c>
       <c r="E33" t="n">
-        <v>66.8308072229751</v>
+        <v>55.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>213.5999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.4</v>
+        <v>31.4</v>
       </c>
       <c r="C34" t="n">
-        <v>214.1</v>
+        <v>216.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1216.4</v>
+        <v>1863.9</v>
       </c>
       <c r="E34" t="n">
-        <v>60.3</v>
+        <v>52.1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>216.4000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48.3</v>
+        <v>24.4589693147838</v>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>211.217206</v>
       </c>
       <c r="D35" t="n">
-        <v>1433.9</v>
+        <v>2075.12152</v>
       </c>
       <c r="E35" t="n">
-        <v>58.4</v>
+        <v>48.7354850354782</v>
+      </c>
+      <c r="F35" t="n">
+        <v>211.2215200000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.7</v>
+        <v>17.8</v>
       </c>
       <c r="C36" t="n">
-        <v>214</v>
+        <v>208.3</v>
       </c>
       <c r="D36" t="n">
-        <v>1647.5</v>
+        <v>2295.6</v>
       </c>
       <c r="E36" t="n">
-        <v>55.3</v>
+        <v>46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>220.4784799999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.4</v>
+        <v>29.4</v>
       </c>
       <c r="C37" t="n">
-        <v>216.5</v>
+        <v>231.7</v>
       </c>
       <c r="D37" t="n">
-        <v>1863.9</v>
+        <v>2527.3</v>
       </c>
       <c r="E37" t="n">
-        <v>52.1</v>
+        <v>44.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>231.7000000000003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.2</v>
+        <v>8.164369110435191</v>
       </c>
       <c r="C38" t="n">
-        <v>193.1</v>
+        <v>210.595541</v>
       </c>
       <c r="D38" t="n">
-        <v>2031.4</v>
+        <v>210.595541</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.3</v>
+        <v>8.164369110435191</v>
+      </c>
+      <c r="F38" t="n">
+        <v>210.595541</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.9</v>
+        <v>14.8</v>
       </c>
       <c r="C39" t="n">
-        <v>208.4</v>
+        <v>202.4</v>
       </c>
       <c r="D39" t="n">
-        <v>2239.2</v>
+        <v>413</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9</v>
+        <v>11.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>202.404459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="C40" t="n">
-        <v>211.1</v>
+        <v>202.2</v>
       </c>
       <c r="D40" t="n">
-        <v>2450.2</v>
+        <v>617.1</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4</v>
+        <v>7.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>204.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.164369110435191</v>
+        <v>-3</v>
       </c>
       <c r="C41" t="n">
-        <v>210.595541</v>
+        <v>208.1</v>
       </c>
       <c r="D41" t="n">
-        <v>210.595541</v>
+        <v>825.4</v>
       </c>
       <c r="E41" t="n">
-        <v>8.164369110435191</v>
+        <v>4.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>208.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>202.4</v>
+        <v>219.4</v>
       </c>
       <c r="D42" t="n">
-        <v>413</v>
+        <v>1044.8</v>
       </c>
       <c r="E42" t="n">
-        <v>11.4</v>
+        <v>4.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>219.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.9</v>
+        <v>-3.6</v>
       </c>
       <c r="C43" t="n">
-        <v>202.2</v>
+        <v>207.4</v>
       </c>
       <c r="D43" t="n">
-        <v>617.1</v>
+        <v>1252.3</v>
       </c>
       <c r="E43" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>207.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-3</v>
+        <v>-5.8</v>
       </c>
       <c r="C44" t="n">
-        <v>208.1</v>
+        <v>198.8</v>
       </c>
       <c r="D44" t="n">
-        <v>825.4</v>
+        <v>1450.9</v>
       </c>
       <c r="E44" t="n">
-        <v>4.4</v>
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>198.6000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>-5.6</v>
       </c>
       <c r="C45" t="n">
-        <v>219.4</v>
+        <v>196.9</v>
       </c>
       <c r="D45" t="n">
-        <v>1044.8</v>
+        <v>1647.7</v>
       </c>
       <c r="E45" t="n">
-        <v>4.9</v>
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>196.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-3.6</v>
+        <v>-12.7</v>
       </c>
       <c r="C46" t="n">
-        <v>207.4</v>
+        <v>191.5</v>
       </c>
       <c r="D46" t="n">
-        <v>1252.3</v>
+        <v>1839.3</v>
       </c>
       <c r="E46" t="n">
-        <v>3.4</v>
+        <v>-0.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>191.5999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-5.8</v>
+        <v>-7.2</v>
       </c>
       <c r="C47" t="n">
-        <v>198.8</v>
+        <v>193.1</v>
       </c>
       <c r="D47" t="n">
-        <v>1450.9</v>
+        <v>2031.4</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>-1.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>192.1000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-5.6</v>
+        <v>2.9</v>
       </c>
       <c r="C48" t="n">
-        <v>196.9</v>
+        <v>208.4</v>
       </c>
       <c r="D48" t="n">
-        <v>1647.7</v>
+        <v>2239.2</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>-0.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>207.7999999999997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-12.7</v>
+        <v>6.1</v>
       </c>
       <c r="C49" t="n">
-        <v>191.5</v>
+        <v>211.1</v>
       </c>
       <c r="D49" t="n">
-        <v>1839.3</v>
+        <v>2450.2</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3</v>
+        <v>11.633428300095</v>
       </c>
       <c r="C50" t="n">
-        <v>226.5</v>
+        <v>235.1</v>
       </c>
       <c r="D50" t="n">
-        <v>2314.6</v>
+        <v>235.1</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.5</v>
+        <v>11.633428300095</v>
+      </c>
+      <c r="F50" t="n">
+        <v>235.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-4.1</v>
+        <v>0.5</v>
       </c>
       <c r="C51" t="n">
-        <v>235.8</v>
+        <v>229.6</v>
       </c>
       <c r="D51" t="n">
-        <v>2550.2</v>
+        <v>464.7</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.2</v>
+        <v>-0.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>229.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C52" t="n">
-        <v>229.9</v>
+        <v>236.2</v>
       </c>
       <c r="D52" t="n">
-        <v>2779.7</v>
+        <v>690.4</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.5</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>225.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11.633428300095</v>
+        <v>-1</v>
       </c>
       <c r="C53" t="n">
-        <v>235.1</v>
+        <v>230</v>
       </c>
       <c r="D53" t="n">
-        <v>235.1</v>
+        <v>942.3</v>
       </c>
       <c r="E53" t="n">
-        <v>11.633428300095</v>
+        <v>1.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>251.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C54" t="n">
-        <v>229.6</v>
+        <v>257.1</v>
       </c>
       <c r="D54" t="n">
-        <v>464.7</v>
+        <v>1245</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>302.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.5</v>
+        <v>-8.5</v>
       </c>
       <c r="C55" t="n">
-        <v>236.2</v>
+        <v>221.2</v>
       </c>
       <c r="D55" t="n">
-        <v>690.4</v>
+        <v>1466.6</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>221.5999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>230</v>
+        <v>216.6</v>
       </c>
       <c r="D56" t="n">
-        <v>942.3</v>
+        <v>1683</v>
       </c>
       <c r="E56" t="n">
-        <v>1.6</v>
+        <v>-1.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>216.4000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9</v>
+        <v>-5.9</v>
       </c>
       <c r="C57" t="n">
-        <v>257.1</v>
+        <v>206.1</v>
       </c>
       <c r="D57" t="n">
-        <v>1245</v>
+        <v>1889.2</v>
       </c>
       <c r="E57" t="n">
-        <v>1.1</v>
+        <v>-2.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>206.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-8.5</v>
+        <v>-3.9</v>
       </c>
       <c r="C58" t="n">
-        <v>221.2</v>
+        <v>198.8</v>
       </c>
       <c r="D58" t="n">
-        <v>1466.6</v>
+        <v>2088</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5</v>
+        <v>-2.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>198.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-8.699999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C59" t="n">
-        <v>216.6</v>
+        <v>226.5</v>
       </c>
       <c r="D59" t="n">
-        <v>1683</v>
+        <v>2314.6</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.6</v>
+        <v>-2.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>226.5999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-5.9</v>
+        <v>-4.1</v>
       </c>
       <c r="C60" t="n">
-        <v>206.1</v>
+        <v>235.8</v>
       </c>
       <c r="D60" t="n">
-        <v>1889.2</v>
+        <v>2550.2</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>235.5999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.9</v>
+        <v>-4.6</v>
       </c>
       <c r="C61" t="n">
-        <v>198.8</v>
+        <v>229.9</v>
       </c>
       <c r="D61" t="n">
-        <v>2088</v>
+        <v>2779.7</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>229.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>242.56</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2351.69</v>
+        <v>524.52</v>
       </c>
       <c r="E62" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
+      </c>
+      <c r="F62" t="n">
+        <v>524.52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.15</v>
+        <v>7.86</v>
       </c>
       <c r="C63" t="n">
-        <v>242.32</v>
+        <v>287.7</v>
       </c>
       <c r="D63" t="n">
-        <v>2594.01</v>
+        <v>813.0599999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>3.51</v>
+        <v>4.62</v>
+      </c>
+      <c r="F63" t="n">
+        <v>288.54</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>17.29</v>
+        <v>-3.79</v>
       </c>
       <c r="C64" t="n">
-        <v>273.65</v>
+        <v>221.7</v>
       </c>
       <c r="D64" t="n">
-        <v>2867.81</v>
+        <v>970.85</v>
       </c>
       <c r="E64" t="n">
-        <v>4.69</v>
+        <v>3.36</v>
+      </c>
+      <c r="F64" t="n">
+        <v>157.7900000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>234.6</v>
       </c>
       <c r="D65" t="n">
-        <v>524.52</v>
+        <v>1246.98</v>
       </c>
       <c r="E65" t="n">
-        <v>2.67</v>
+        <v>9.19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>276.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.86</v>
+        <v>-0.39</v>
       </c>
       <c r="C66" t="n">
-        <v>287.7</v>
+        <v>205.24</v>
       </c>
       <c r="D66" t="n">
-        <v>813.0599999999999</v>
+        <v>1452.22</v>
       </c>
       <c r="E66" t="n">
-        <v>4.62</v>
+        <v>7.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>205.24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-3.79</v>
+        <v>-0.64</v>
       </c>
       <c r="C67" t="n">
-        <v>221.7</v>
+        <v>212.15</v>
       </c>
       <c r="D67" t="n">
-        <v>970.85</v>
+        <v>1660.7</v>
       </c>
       <c r="E67" t="n">
-        <v>3.36</v>
+        <v>1.18</v>
+      </c>
+      <c r="F67" t="n">
+        <v>208.48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.63</v>
+        <v>6.98</v>
       </c>
       <c r="C68" t="n">
-        <v>234.6</v>
+        <v>223.09</v>
       </c>
       <c r="D68" t="n">
-        <v>1246.98</v>
+        <v>1885.53</v>
       </c>
       <c r="E68" t="n">
-        <v>9.19</v>
+        <v>1.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>224.8299999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.39</v>
+        <v>15.24</v>
       </c>
       <c r="C69" t="n">
-        <v>205.24</v>
+        <v>223.77</v>
       </c>
       <c r="D69" t="n">
-        <v>1452.22</v>
+        <v>2109.27</v>
       </c>
       <c r="E69" t="n">
-        <v>7.8</v>
+        <v>3.57</v>
+      </c>
+      <c r="F69" t="n">
+        <v>223.74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.64</v>
+        <v>1.5</v>
       </c>
       <c r="C70" t="n">
-        <v>212.15</v>
+        <v>242.56</v>
       </c>
       <c r="D70" t="n">
-        <v>1660.7</v>
+        <v>2351.69</v>
       </c>
       <c r="E70" t="n">
-        <v>1.18</v>
+        <v>3.35</v>
+      </c>
+      <c r="F70" t="n">
+        <v>242.4200000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.98</v>
+        <v>5.15</v>
       </c>
       <c r="C71" t="n">
-        <v>223.09</v>
+        <v>242.32</v>
       </c>
       <c r="D71" t="n">
-        <v>1885.53</v>
+        <v>2594.01</v>
       </c>
       <c r="E71" t="n">
-        <v>1.8</v>
+        <v>3.51</v>
+      </c>
+      <c r="F71" t="n">
+        <v>242.3200000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15.24</v>
+        <v>17.29</v>
       </c>
       <c r="C72" t="n">
-        <v>223.77</v>
+        <v>273.65</v>
       </c>
       <c r="D72" t="n">
-        <v>2109.27</v>
+        <v>2867.81</v>
       </c>
       <c r="E72" t="n">
-        <v>3.57</v>
+        <v>4.69</v>
+      </c>
+      <c r="F72" t="n">
+        <v>273.7999999999997</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-3.22</v>
+        <v>3.82</v>
       </c>
       <c r="C73" t="n">
-        <v>234.76</v>
+        <v>241.73</v>
       </c>
       <c r="D73" t="n">
-        <v>2442.98</v>
+        <v>496.4</v>
       </c>
       <c r="E73" t="n">
-        <v>3.86</v>
+        <v>-4.29</v>
+      </c>
+      <c r="F73" t="n">
+        <v>496.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-3.52</v>
+        <v>-11.42</v>
       </c>
       <c r="C74" t="n">
-        <v>233.79</v>
+        <v>254.87</v>
       </c>
       <c r="D74" t="n">
-        <v>2676.77</v>
+        <v>757.51</v>
       </c>
       <c r="E74" t="n">
-        <v>3.17</v>
+        <v>-6.85</v>
+      </c>
+      <c r="F74" t="n">
+        <v>261.11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-15</v>
+        <v>11.28</v>
       </c>
       <c r="C75" t="n">
-        <v>232.76</v>
+        <v>246.77</v>
       </c>
       <c r="D75" t="n">
-        <v>2909.53</v>
+        <v>1004.28</v>
       </c>
       <c r="E75" t="n">
-        <v>1.44</v>
+        <v>3.43</v>
+      </c>
+      <c r="F75" t="n">
+        <v>246.77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.82</v>
+        <v>3.46</v>
       </c>
       <c r="C76" t="n">
-        <v>241.73</v>
+        <v>242.84</v>
       </c>
       <c r="D76" t="n">
-        <v>496.4</v>
+        <v>1252.92</v>
       </c>
       <c r="E76" t="n">
-        <v>-4.29</v>
+        <v>0.42</v>
+      </c>
+      <c r="F76" t="n">
+        <v>248.6400000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-11.42</v>
+        <v>10.92</v>
       </c>
       <c r="C77" t="n">
-        <v>254.87</v>
+        <v>227.72</v>
       </c>
       <c r="D77" t="n">
-        <v>757.51</v>
+        <v>1480.29</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.85</v>
+        <v>1.88</v>
+      </c>
+      <c r="F77" t="n">
+        <v>227.3699999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>11.28</v>
+        <v>17.02</v>
       </c>
       <c r="C78" t="n">
-        <v>246.77</v>
+        <v>248.43</v>
       </c>
       <c r="D78" t="n">
-        <v>1004.28</v>
+        <v>1728.72</v>
       </c>
       <c r="E78" t="n">
-        <v>3.43</v>
+        <v>4.04</v>
+      </c>
+      <c r="F78" t="n">
+        <v>248.4300000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.46</v>
+        <v>7.34</v>
       </c>
       <c r="C79" t="n">
-        <v>242.84</v>
+        <v>239.53</v>
       </c>
       <c r="D79" t="n">
-        <v>1252.92</v>
+        <v>1974.81</v>
       </c>
       <c r="E79" t="n">
-        <v>0.42</v>
+        <v>4.71</v>
+      </c>
+      <c r="F79" t="n">
+        <v>246.0899999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10.92</v>
+        <v>7.93</v>
       </c>
       <c r="C80" t="n">
-        <v>227.72</v>
+        <v>241.55</v>
       </c>
       <c r="D80" t="n">
-        <v>1480.29</v>
+        <v>2208.72</v>
       </c>
       <c r="E80" t="n">
-        <v>1.88</v>
+        <v>4.69</v>
+      </c>
+      <c r="F80" t="n">
+        <v>233.9099999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>17.02</v>
+        <v>-3.22</v>
       </c>
       <c r="C81" t="n">
-        <v>248.43</v>
+        <v>234.76</v>
       </c>
       <c r="D81" t="n">
-        <v>1728.72</v>
+        <v>2442.98</v>
       </c>
       <c r="E81" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
+      </c>
+      <c r="F81" t="n">
+        <v>234.2600000000002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.34</v>
+        <v>-3.52</v>
       </c>
       <c r="C82" t="n">
-        <v>239.53</v>
+        <v>233.79</v>
       </c>
       <c r="D82" t="n">
-        <v>1974.81</v>
+        <v>2676.77</v>
       </c>
       <c r="E82" t="n">
-        <v>4.71</v>
+        <v>3.17</v>
+      </c>
+      <c r="F82" t="n">
+        <v>233.79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7.93</v>
+        <v>-15</v>
       </c>
       <c r="C83" t="n">
-        <v>241.55</v>
+        <v>232.76</v>
       </c>
       <c r="D83" t="n">
-        <v>2208.72</v>
+        <v>2909.53</v>
       </c>
       <c r="E83" t="n">
-        <v>4.69</v>
+        <v>1.44</v>
+      </c>
+      <c r="F83" t="n">
+        <v>232.7600000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-3.84</v>
+        <v>-12.01</v>
       </c>
       <c r="C84" t="n">
-        <v>227.836</v>
+        <v>215.31</v>
       </c>
       <c r="D84" t="n">
-        <v>2312.9873</v>
+        <v>451.18</v>
       </c>
       <c r="E84" t="n">
-        <v>-5.92</v>
+        <v>-10.17</v>
+      </c>
+      <c r="F84" t="n">
+        <v>451.18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9.56</v>
+        <v>-1.46</v>
       </c>
       <c r="C85" t="n">
-        <v>258.3933</v>
+        <v>257.11</v>
       </c>
       <c r="D85" t="n">
-        <v>2571.3806</v>
+        <v>708.05</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.57</v>
+        <v>-7.35</v>
+      </c>
+      <c r="F85" t="n">
+        <v>256.8699999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>-11.33</v>
       </c>
       <c r="C86" t="n">
-        <v>260.6632</v>
+        <v>225.92</v>
       </c>
       <c r="D86" t="n">
-        <v>2835.0428</v>
+        <v>933.67</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.17</v>
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>225.62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-12.01</v>
+        <v>-4.97</v>
       </c>
       <c r="C87" t="n">
-        <v>215.31</v>
+        <v>238.7527</v>
       </c>
       <c r="D87" t="n">
-        <v>451.18</v>
+        <v>1172.4178</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.17</v>
+        <v>-7.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>238.7478</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1.46</v>
+        <v>-0.61</v>
       </c>
       <c r="C88" t="n">
-        <v>257.11</v>
+        <v>230.467</v>
       </c>
       <c r="D88" t="n">
-        <v>708.05</v>
+        <v>1402.8615</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.35</v>
+        <v>-6.54</v>
+      </c>
+      <c r="F88" t="n">
+        <v>230.4437</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-11.33</v>
+        <v>-3.29</v>
       </c>
       <c r="C89" t="n">
-        <v>225.92</v>
+        <v>235.259</v>
       </c>
       <c r="D89" t="n">
-        <v>933.67</v>
+        <v>1638.1206</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.369999999999999</v>
+        <v>-6.09</v>
+      </c>
+      <c r="F89" t="n">
+        <v>235.2591</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-4.97</v>
+        <v>-3.54</v>
       </c>
       <c r="C90" t="n">
-        <v>238.7527</v>
+        <v>232.0721</v>
       </c>
       <c r="D90" t="n">
-        <v>1172.4178</v>
+        <v>1870.1928</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.7</v>
+        <v>-5.84</v>
+      </c>
+      <c r="F90" t="n">
+        <v>232.0722000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.61</v>
+        <v>-11.64</v>
       </c>
       <c r="C91" t="n">
-        <v>230.467</v>
+        <v>214.695</v>
       </c>
       <c r="D91" t="n">
-        <v>1402.8615</v>
+        <v>2084.0699</v>
       </c>
       <c r="E91" t="n">
-        <v>-6.54</v>
+        <v>-6.19</v>
+      </c>
+      <c r="F91" t="n">
+        <v>213.8770999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-3.29</v>
+        <v>-3.84</v>
       </c>
       <c r="C92" t="n">
-        <v>235.259</v>
+        <v>227.836</v>
       </c>
       <c r="D92" t="n">
-        <v>1638.1206</v>
+        <v>2312.9873</v>
       </c>
       <c r="E92" t="n">
-        <v>-6.09</v>
+        <v>-5.92</v>
+      </c>
+      <c r="F92" t="n">
+        <v>228.9173999999998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-3.54</v>
+        <v>9.56</v>
       </c>
       <c r="C93" t="n">
-        <v>232.0721</v>
+        <v>258.3933</v>
       </c>
       <c r="D93" t="n">
-        <v>1870.1928</v>
+        <v>2571.3806</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.84</v>
+        <v>-4.57</v>
+      </c>
+      <c r="F93" t="n">
+        <v>258.3933000000002</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-11.64</v>
+        <v>11.7</v>
       </c>
       <c r="C94" t="n">
-        <v>214.695</v>
+        <v>260.6632</v>
       </c>
       <c r="D94" t="n">
-        <v>2084.0699</v>
+        <v>2835.0428</v>
       </c>
       <c r="E94" t="n">
-        <v>-6.19</v>
+        <v>-3.17</v>
+      </c>
+      <c r="F94" t="n">
+        <v>263.6622000000002</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>282</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>2701.6</v>
+        <v>506.584</v>
       </c>
       <c r="E95" t="n">
-        <v>14.7</v>
+        <v>12.28</v>
+      </c>
+      <c r="F95" t="n">
+        <v>506.584</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="C96" t="n">
-        <v>277.1</v>
+        <v>267.3282</v>
       </c>
       <c r="D96" t="n">
-        <v>2990.8</v>
+        <v>781.4104</v>
       </c>
       <c r="E96" t="n">
-        <v>13.3</v>
+        <v>10.21</v>
+      </c>
+      <c r="F96" t="n">
+        <v>274.8264</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5.6</v>
+        <v>16.8</v>
       </c>
       <c r="C97" t="n">
-        <v>285.2</v>
+        <v>264.4</v>
       </c>
       <c r="D97" t="n">
-        <v>3282.4</v>
+        <v>1045.5</v>
       </c>
       <c r="E97" t="n">
-        <v>12.6</v>
+        <v>11.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>264.0896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>266.9</v>
+      </c>
       <c r="D98" t="n">
-        <v>506.584</v>
+        <v>1312.5</v>
       </c>
       <c r="E98" t="n">
-        <v>12.28</v>
+        <v>11.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.25</v>
+        <v>15.7</v>
       </c>
       <c r="C99" t="n">
-        <v>267.3282</v>
+        <v>266.8</v>
       </c>
       <c r="D99" t="n">
-        <v>781.4104</v>
+        <v>1584.7</v>
       </c>
       <c r="E99" t="n">
-        <v>10.21</v>
+        <v>12.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>272.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16.8</v>
+        <v>18.6</v>
       </c>
       <c r="C100" t="n">
-        <v>264.4</v>
+        <v>283.2</v>
       </c>
       <c r="D100" t="n">
-        <v>1045.5</v>
+        <v>1902.6</v>
       </c>
       <c r="E100" t="n">
-        <v>11.8</v>
+        <v>14.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>317.8999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11.7</v>
+        <v>8.1</v>
       </c>
       <c r="C101" t="n">
-        <v>266.9</v>
+        <v>256.7</v>
       </c>
       <c r="D101" t="n">
-        <v>1312.5</v>
+        <v>2163.8</v>
       </c>
       <c r="E101" t="n">
-        <v>11.8</v>
+        <v>13.9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>261.2000000000003</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>266.8</v>
+        <v>255.7</v>
       </c>
       <c r="D102" t="n">
-        <v>1584.7</v>
+        <v>2419.6</v>
       </c>
       <c r="E102" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>255.7999999999997</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="C103" t="n">
-        <v>283.2</v>
+        <v>282</v>
       </c>
       <c r="D103" t="n">
-        <v>1902.6</v>
+        <v>2701.6</v>
       </c>
       <c r="E103" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="C104" t="n">
-        <v>256.7</v>
+        <v>277.1</v>
       </c>
       <c r="D104" t="n">
-        <v>2163.8</v>
+        <v>2990.8</v>
       </c>
       <c r="E104" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>289.2000000000003</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>16</v>
+        <v>5.6</v>
       </c>
       <c r="C105" t="n">
-        <v>255.7</v>
+        <v>285.2</v>
       </c>
       <c r="D105" t="n">
-        <v>2419.6</v>
+        <v>3282.4</v>
       </c>
       <c r="E105" t="n">
-        <v>14.2</v>
+        <v>12.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>291.5999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>291.5</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>2793.2</v>
+        <v>571.2</v>
       </c>
       <c r="E106" t="n">
-        <v>2.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>571.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-1.5</v>
+        <v>6.3</v>
       </c>
       <c r="C107" t="n">
-        <v>274.5</v>
+        <v>292.1</v>
       </c>
       <c r="D107" t="n">
-        <v>3067.6</v>
+        <v>866.5</v>
       </c>
       <c r="E107" t="n">
-        <v>2.1</v>
+        <v>7.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>295.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5.8</v>
+        <v>-0.3</v>
       </c>
       <c r="C108" t="n">
-        <v>303.4</v>
+        <v>272.7</v>
       </c>
       <c r="D108" t="n">
-        <v>3401.2</v>
+        <v>1139.2</v>
       </c>
       <c r="E108" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>272.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>280.4</v>
+      </c>
       <c r="D109" t="n">
-        <v>571.2</v>
+        <v>1419.6</v>
       </c>
       <c r="E109" t="n">
-        <v>11.8</v>
+        <v>4.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>280.3999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.3</v>
+        <v>-2.8</v>
       </c>
       <c r="C110" t="n">
-        <v>292.1</v>
+        <v>265.1</v>
       </c>
       <c r="D110" t="n">
-        <v>866.5</v>
+        <v>1686</v>
       </c>
       <c r="E110" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>266.4000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.3</v>
+        <v>-6.6</v>
       </c>
       <c r="C111" t="n">
-        <v>272.7</v>
+        <v>270.1</v>
       </c>
       <c r="D111" t="n">
-        <v>1139.2</v>
+        <v>1956.1</v>
       </c>
       <c r="E111" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>270.0999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="C112" t="n">
-        <v>280.4</v>
+        <v>276.9</v>
       </c>
       <c r="D112" t="n">
-        <v>1419.6</v>
+        <v>2232.9</v>
       </c>
       <c r="E112" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>276.8000000000002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-2.8</v>
+        <v>1.6</v>
       </c>
       <c r="C113" t="n">
-        <v>265.1</v>
+        <v>262.1</v>
       </c>
       <c r="D113" t="n">
-        <v>1686</v>
+        <v>2497.7</v>
       </c>
       <c r="E113" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>264.7999999999997</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-6.6</v>
+        <v>2.3</v>
       </c>
       <c r="C114" t="n">
-        <v>270.1</v>
+        <v>291.5</v>
       </c>
       <c r="D114" t="n">
-        <v>1956.1</v>
+        <v>2793.2</v>
       </c>
       <c r="E114" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>295.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.1</v>
+        <v>-1.5</v>
       </c>
       <c r="C115" t="n">
-        <v>276.9</v>
+        <v>274.5</v>
       </c>
       <c r="D115" t="n">
-        <v>2232.9</v>
+        <v>3067.6</v>
       </c>
       <c r="E115" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>274.4000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="C116" t="n">
-        <v>262.1</v>
+        <v>303.4</v>
       </c>
       <c r="D116" t="n">
-        <v>2497.7</v>
+        <v>3401.2</v>
       </c>
       <c r="E116" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>333.5999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>310.3</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>2933</v>
+        <v>552.8</v>
       </c>
       <c r="E117" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>552.8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C118" t="n">
-        <v>301.6</v>
+        <v>317.2</v>
       </c>
       <c r="D118" t="n">
-        <v>3220.3</v>
+        <v>916.8</v>
       </c>
       <c r="E118" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>17.4</v>
+        <v>5.7</v>
       </c>
       <c r="C119" t="n">
-        <v>356.6</v>
+        <v>292</v>
       </c>
       <c r="D119" t="n">
-        <v>3582.6</v>
+        <v>1196.6</v>
       </c>
       <c r="E119" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>279.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>277.9</v>
+      </c>
       <c r="D120" t="n">
-        <v>552.8</v>
+        <v>1474.4</v>
       </c>
       <c r="E120" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>277.8000000000002</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="C121" t="n">
-        <v>317.2</v>
+        <v>279</v>
       </c>
       <c r="D121" t="n">
-        <v>916.8</v>
+        <v>1755</v>
       </c>
       <c r="E121" t="n">
-        <v>4.9</v>
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>280.5999999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>292</v>
+        <v>300.7</v>
       </c>
       <c r="D122" t="n">
-        <v>1196.6</v>
+        <v>2055.7</v>
       </c>
       <c r="E122" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>300.6999999999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-2.3</v>
+        <v>-4.6</v>
       </c>
       <c r="C123" t="n">
-        <v>277.9</v>
+        <v>268</v>
       </c>
       <c r="D123" t="n">
-        <v>1474.4</v>
+        <v>2323.6</v>
       </c>
       <c r="E123" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>267.9000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B124" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2630.3</v>
+      </c>
+      <c r="E124" t="n">
         <v>3.7</v>
       </c>
-      <c r="C124" t="n">
-        <v>279</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1755</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3</v>
+      <c r="F124" t="n">
+        <v>306.7000000000003</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C125" t="n">
-        <v>300.7</v>
+        <v>310.3</v>
       </c>
       <c r="D125" t="n">
-        <v>2055.7</v>
+        <v>2933</v>
       </c>
       <c r="E125" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>302.6999999999998</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-4.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>268</v>
+        <v>301.6</v>
       </c>
       <c r="D126" t="n">
-        <v>2323.6</v>
+        <v>3220.3</v>
       </c>
       <c r="E126" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>287.3000000000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>11.6</v>
+        <v>17.4</v>
       </c>
       <c r="C127" t="n">
-        <v>297.2</v>
+        <v>356.6</v>
       </c>
       <c r="D127" t="n">
-        <v>2630.3</v>
+        <v>3582.6</v>
       </c>
       <c r="E127" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>362.2999999999997</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>324.7</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>3195.7</v>
+        <v>593.5</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>593.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.6</v>
+        <v>1.9</v>
       </c>
       <c r="C129" t="n">
-        <v>312.7</v>
+        <v>319</v>
       </c>
       <c r="D129" t="n">
-        <v>3508.4</v>
+        <v>926.2</v>
       </c>
       <c r="E129" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>332.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-6.7</v>
+        <v>-4.7</v>
       </c>
       <c r="C130" t="n">
-        <v>345.5</v>
+        <v>297.3</v>
       </c>
       <c r="D130" t="n">
-        <v>3896.5</v>
+        <v>1227.7</v>
       </c>
       <c r="E130" t="n">
-        <v>3.1</v>
+        <v>-1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>301.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>298</v>
+      </c>
       <c r="D131" t="n">
-        <v>593.5</v>
+        <v>1526.3</v>
       </c>
       <c r="E131" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>298.5999999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.9</v>
+        <v>9.9</v>
       </c>
       <c r="C132" t="n">
-        <v>319</v>
+        <v>316.2</v>
       </c>
       <c r="D132" t="n">
-        <v>926.2</v>
+        <v>1870.5</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>344.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-4.7</v>
+        <v>-2.1</v>
       </c>
       <c r="C133" t="n">
-        <v>297.3</v>
+        <v>302.4</v>
       </c>
       <c r="D133" t="n">
-        <v>1227.7</v>
+        <v>2172.8</v>
       </c>
       <c r="E133" t="n">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>302.3000000000002</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.7</v>
+        <v>11.9</v>
       </c>
       <c r="C134" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D134" t="n">
-        <v>1526.3</v>
+        <v>2520.5</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.4</v>
+        <v>4.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>347.6999999999998</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>9.9</v>
+        <v>3.6</v>
       </c>
       <c r="C135" t="n">
-        <v>316.2</v>
+        <v>326.2</v>
       </c>
       <c r="D135" t="n">
-        <v>1870.5</v>
+        <v>2872.6</v>
       </c>
       <c r="E135" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>352.0999999999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="C136" t="n">
-        <v>302.4</v>
+        <v>324.7</v>
       </c>
       <c r="D136" t="n">
-        <v>2172.8</v>
+        <v>3195.7</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>323.0999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>11.9</v>
+        <v>-2.6</v>
       </c>
       <c r="C137" t="n">
-        <v>312</v>
+        <v>312.7</v>
       </c>
       <c r="D137" t="n">
-        <v>2520.5</v>
+        <v>3508.4</v>
       </c>
       <c r="E137" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>312.7000000000003</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.6</v>
+        <v>-6.7</v>
       </c>
       <c r="C138" t="n">
-        <v>326.2</v>
+        <v>345.5</v>
       </c>
       <c r="D138" t="n">
-        <v>2872.6</v>
+        <v>3896.5</v>
       </c>
       <c r="E138" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>388.0999999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>376.9</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>3438.6</v>
+        <v>661.8</v>
       </c>
       <c r="E139" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>661.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>16.3</v>
+        <v>0.2</v>
       </c>
       <c r="C140" t="n">
-        <v>398.2</v>
+        <v>327.5</v>
       </c>
       <c r="D140" t="n">
-        <v>3839</v>
+        <v>975.6</v>
       </c>
       <c r="E140" t="n">
-        <v>6</v>
+        <v>1.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>313.8000000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="C141" t="n">
-        <v>393.2</v>
+        <v>336.7</v>
       </c>
       <c r="D141" t="n">
-        <v>4232</v>
+        <v>1314.7</v>
       </c>
       <c r="E141" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>339.1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>322.2</v>
+      </c>
       <c r="D142" t="n">
-        <v>661.8</v>
+        <v>1638.9</v>
       </c>
       <c r="E142" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>324.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2</v>
+        <v>-1.4</v>
       </c>
       <c r="C143" t="n">
-        <v>327.5</v>
+        <v>323.4</v>
       </c>
       <c r="D143" t="n">
-        <v>975.6</v>
+        <v>1966.5</v>
       </c>
       <c r="E143" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>327.5999999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.7</v>
+        <v>12.6</v>
       </c>
       <c r="C144" t="n">
-        <v>336.7</v>
+        <v>353.5</v>
       </c>
       <c r="D144" t="n">
-        <v>1314.7</v>
+        <v>2320.1</v>
       </c>
       <c r="E144" t="n">
         <v>2.9</v>
       </c>
+      <c r="F144" t="n">
+        <v>353.5999999999999</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="C145" t="n">
-        <v>322.2</v>
+        <v>349.9</v>
       </c>
       <c r="D145" t="n">
-        <v>1638.9</v>
+        <v>2670</v>
       </c>
       <c r="E145" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>349.9000000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.4</v>
+        <v>6.8</v>
       </c>
       <c r="C146" t="n">
-        <v>323.4</v>
+        <v>375.6</v>
       </c>
       <c r="D146" t="n">
-        <v>1966.5</v>
+        <v>3049.8</v>
       </c>
       <c r="E146" t="n">
-        <v>1.3</v>
+        <v>4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>379.8000000000002</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>12.6</v>
+        <v>8.4</v>
       </c>
       <c r="C147" t="n">
-        <v>353.5</v>
+        <v>376.9</v>
       </c>
       <c r="D147" t="n">
-        <v>2320.1</v>
+        <v>3438.6</v>
       </c>
       <c r="E147" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>388.7999999999997</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>8.1</v>
+        <v>16.3</v>
       </c>
       <c r="C148" t="n">
-        <v>349.9</v>
+        <v>398.2</v>
       </c>
       <c r="D148" t="n">
-        <v>2670</v>
+        <v>3839</v>
       </c>
       <c r="E148" t="n">
-        <v>3.5</v>
+        <v>6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>400.4000000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6.8</v>
+        <v>11.2</v>
       </c>
       <c r="C149" t="n">
-        <v>375.6</v>
+        <v>393.2</v>
       </c>
       <c r="D149" t="n">
-        <v>3049.8</v>
+        <v>4232</v>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>6.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>452.8</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>3979.7</v>
+        <v>785.7</v>
       </c>
       <c r="E150" t="n">
-        <v>11.3</v>
+        <v>14</v>
+      </c>
+      <c r="F150" t="n">
+        <v>785.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>16.8</v>
+        <v>22.2</v>
       </c>
       <c r="C151" t="n">
-        <v>481.8</v>
+        <v>417.8</v>
       </c>
       <c r="D151" t="n">
-        <v>4461.4</v>
+        <v>1205.9</v>
       </c>
       <c r="E151" t="n">
-        <v>11.9</v>
+        <v>18.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>420.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>20.7</v>
+        <v>-1.2</v>
       </c>
       <c r="C152" t="n">
-        <v>493.9</v>
+        <v>350.6</v>
       </c>
       <c r="D152" t="n">
-        <v>4951.7</v>
+        <v>1556.9</v>
       </c>
       <c r="E152" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>395.1</v>
+      </c>
       <c r="D153" t="n">
-        <v>785.7</v>
+        <v>1953.2</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>14.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>396.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>22.2</v>
+        <v>8.4</v>
       </c>
       <c r="C154" t="n">
-        <v>417.8</v>
+        <v>371.1</v>
       </c>
       <c r="D154" t="n">
-        <v>1205.9</v>
+        <v>2318.5</v>
       </c>
       <c r="E154" t="n">
-        <v>18.4</v>
+        <v>12.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>365.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1.2</v>
+        <v>3.4</v>
       </c>
       <c r="C155" t="n">
-        <v>350.6</v>
+        <v>382.2</v>
       </c>
       <c r="D155" t="n">
-        <v>1556.9</v>
+        <v>2701.4</v>
       </c>
       <c r="E155" t="n">
-        <v>13.3</v>
+        <v>11.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>382.9000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>16.7</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>395.1</v>
+        <v>391</v>
       </c>
       <c r="D156" t="n">
-        <v>1953.2</v>
+        <v>3104.7</v>
       </c>
       <c r="E156" t="n">
-        <v>14.1</v>
+        <v>11.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>403.2999999999997</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="C157" t="n">
-        <v>371.1</v>
+        <v>422.1</v>
       </c>
       <c r="D157" t="n">
-        <v>2318.5</v>
+        <v>3526.9</v>
       </c>
       <c r="E157" t="n">
-        <v>12.9</v>
+        <v>10.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>422.2000000000003</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3.4</v>
+        <v>15.2</v>
       </c>
       <c r="C158" t="n">
-        <v>382.2</v>
+        <v>452.8</v>
       </c>
       <c r="D158" t="n">
-        <v>2701.4</v>
+        <v>3979.7</v>
       </c>
       <c r="E158" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>452.7999999999997</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>16.8</v>
       </c>
       <c r="C159" t="n">
-        <v>391</v>
+        <v>481.8</v>
       </c>
       <c r="D159" t="n">
-        <v>3104.7</v>
+        <v>4461.4</v>
       </c>
       <c r="E159" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>481.6999999999998</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7.4</v>
+        <v>20.7</v>
       </c>
       <c r="C160" t="n">
-        <v>422.1</v>
+        <v>493.9</v>
       </c>
       <c r="D160" t="n">
-        <v>3526.9</v>
+        <v>4951.7</v>
       </c>
       <c r="E160" t="n">
-        <v>10.8</v>
+        <v>12.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>490.3000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/能源/能源主要产品产量/石脑油.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/石脑油.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3480 +454,2842 @@
           <t>石脑油产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>石脑油产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.4589693147838</v>
+      </c>
       <c r="C2" t="n">
-        <v>75.86</v>
+        <v>211.217206</v>
       </c>
       <c r="D2" t="n">
-        <v>75.86</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>75.86</v>
+        <v>2075.12152</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48.7354850354782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.3</v>
+        <v>17.8</v>
       </c>
       <c r="C3" t="n">
-        <v>62.48</v>
+        <v>208.3</v>
       </c>
       <c r="D3" t="n">
-        <v>138.34</v>
+        <v>2295.6</v>
       </c>
       <c r="E3" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>62.48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.8</v>
+        <v>29.4</v>
       </c>
       <c r="C4" t="n">
-        <v>72.59999999999999</v>
+        <v>231.7</v>
       </c>
       <c r="D4" t="n">
-        <v>217.76</v>
+        <v>2527.3</v>
       </c>
       <c r="E4" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>79.41999999999999</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134.4</v>
+        <v>90.2077151335312</v>
       </c>
       <c r="C5" t="n">
-        <v>66.09</v>
+        <v>192.470384</v>
       </c>
       <c r="D5" t="n">
-        <v>283.85</v>
+        <v>192.470384</v>
       </c>
       <c r="E5" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>66.09000000000003</v>
+        <v>90.2077151335312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.5</v>
+        <v>77.80687631440971</v>
       </c>
       <c r="C6" t="n">
-        <v>58.09</v>
+        <v>182.07688</v>
       </c>
       <c r="D6" t="n">
-        <v>343.54</v>
+        <v>374.547264</v>
       </c>
       <c r="E6" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>59.69</v>
+        <v>84.19583110078371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>49.2</v>
       </c>
       <c r="C7" t="n">
-        <v>60.03</v>
+        <v>188.8</v>
       </c>
       <c r="D7" t="n">
-        <v>403.57</v>
+        <v>565.4</v>
       </c>
       <c r="E7" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>60.02999999999997</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>65.93000000000001</v>
+        <v>210.1</v>
       </c>
       <c r="D8" t="n">
-        <v>469.48</v>
+        <v>777.7</v>
       </c>
       <c r="E8" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>65.91000000000003</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.40000000000001</v>
+        <v>54.3560596019335</v>
       </c>
       <c r="C9" t="n">
-        <v>62.16</v>
+        <v>204.671049</v>
       </c>
       <c r="D9" t="n">
-        <v>531.66</v>
+        <v>1002.67374</v>
       </c>
       <c r="E9" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>62.17999999999995</v>
+        <v>66.8308072229751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.2</v>
+        <v>50.4</v>
       </c>
       <c r="C10" t="n">
-        <v>62.2</v>
+        <v>214.1</v>
       </c>
       <c r="D10" t="n">
-        <v>593.83</v>
+        <v>1216.4</v>
       </c>
       <c r="E10" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>62.17000000000007</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.4</v>
+        <v>48.3</v>
       </c>
       <c r="C11" t="n">
-        <v>60.42</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
-        <v>654.25</v>
+        <v>1433.9</v>
       </c>
       <c r="E11" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60.41999999999996</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.8</v>
+        <v>37.7</v>
       </c>
       <c r="C12" t="n">
-        <v>47.6</v>
+        <v>214</v>
       </c>
       <c r="D12" t="n">
-        <v>701.84</v>
+        <v>1647.5</v>
       </c>
       <c r="E12" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>47.59000000000003</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-33.9</v>
+        <v>31.4</v>
       </c>
       <c r="C13" t="n">
-        <v>52.66</v>
+        <v>216.5</v>
       </c>
       <c r="D13" t="n">
-        <v>878.3200000000001</v>
+        <v>1863.9</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>176.48</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-16.0396049743129</v>
+        <v>-7.2</v>
       </c>
       <c r="C14" t="n">
-        <v>100.517395</v>
+        <v>193.1</v>
       </c>
       <c r="D14" t="n">
-        <v>100.517395</v>
+        <v>2031.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.0396049743129</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100.517395</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.4</v>
+        <v>2.9</v>
       </c>
       <c r="C15" t="n">
-        <v>101.35</v>
+        <v>208.4</v>
       </c>
       <c r="D15" t="n">
-        <v>201.88</v>
+        <v>2239.2</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.362605</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.7</v>
+        <v>6.1</v>
       </c>
       <c r="C16" t="n">
-        <v>117.34</v>
+        <v>211.1</v>
       </c>
       <c r="D16" t="n">
-        <v>319.33</v>
+        <v>2450.2</v>
       </c>
       <c r="E16" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>117.45</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.4</v>
+        <v>8.164369110435191</v>
       </c>
       <c r="C17" t="n">
-        <v>106.07</v>
+        <v>210.595541</v>
       </c>
       <c r="D17" t="n">
-        <v>425.98</v>
+        <v>210.595541</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>106.65</v>
+        <v>8.164369110435191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="C18" t="n">
-        <v>115.21</v>
+        <v>202.4</v>
       </c>
       <c r="D18" t="n">
-        <v>543.79</v>
+        <v>413</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>117.8099999999999</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.0697341849958</v>
+        <v>4.9</v>
       </c>
       <c r="C19" t="n">
-        <v>125.06857</v>
+        <v>202.2</v>
       </c>
       <c r="D19" t="n">
-        <v>684.676441</v>
+        <v>617.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.63694808776815</v>
-      </c>
-      <c r="F19" t="n">
-        <v>140.886441</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.7974856959768</v>
+        <v>-3</v>
       </c>
       <c r="C20" t="n">
-        <v>128.558989</v>
+        <v>208.1</v>
       </c>
       <c r="D20" t="n">
-        <v>811.63843</v>
+        <v>825.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.269906617915716</v>
-      </c>
-      <c r="F20" t="n">
-        <v>126.961989</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>137.5</v>
+        <v>219.4</v>
       </c>
       <c r="D21" t="n">
-        <v>949.35</v>
+        <v>1044.8</v>
       </c>
       <c r="E21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>137.7115700000001</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.3013186536644</v>
+        <v>-3.6</v>
       </c>
       <c r="C22" t="n">
-        <v>148.531018</v>
+        <v>207.4</v>
       </c>
       <c r="D22" t="n">
-        <v>1097.885986</v>
+        <v>1252.3</v>
       </c>
       <c r="E22" t="n">
-        <v>7.11981112656079</v>
-      </c>
-      <c r="F22" t="n">
-        <v>148.535986</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.9</v>
+        <v>-5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>156.6</v>
+        <v>198.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1254.52</v>
+        <v>1450.9</v>
       </c>
       <c r="E23" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>156.634014</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.1</v>
+        <v>-5.6</v>
       </c>
       <c r="C24" t="n">
-        <v>159.49</v>
+        <v>196.9</v>
       </c>
       <c r="D24" t="n">
-        <v>1413.96</v>
+        <v>1647.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>159.4400000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.7</v>
+        <v>-12.7</v>
       </c>
       <c r="C25" t="n">
-        <v>168.34</v>
+        <v>191.5</v>
       </c>
       <c r="D25" t="n">
-        <v>1582.29</v>
+        <v>1839.3</v>
       </c>
       <c r="E25" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>168.3299999999999</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.2077151335312</v>
+        <v>0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>192.470384</v>
+        <v>226.5</v>
       </c>
       <c r="D26" t="n">
-        <v>192.470384</v>
+        <v>2314.6</v>
       </c>
       <c r="E26" t="n">
-        <v>90.2077151335312</v>
-      </c>
-      <c r="F26" t="n">
-        <v>192.470384</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.80687631440971</v>
+        <v>-4.1</v>
       </c>
       <c r="C27" t="n">
-        <v>182.07688</v>
+        <v>235.8</v>
       </c>
       <c r="D27" t="n">
-        <v>374.547264</v>
+        <v>2550.2</v>
       </c>
       <c r="E27" t="n">
-        <v>84.19583110078371</v>
-      </c>
-      <c r="F27" t="n">
-        <v>182.07688</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.2</v>
+        <v>-4.6</v>
       </c>
       <c r="C28" t="n">
-        <v>188.8</v>
+        <v>229.9</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4</v>
+        <v>2779.7</v>
       </c>
       <c r="E28" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>190.852736</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.09999999999999</v>
+        <v>11.633428300095</v>
       </c>
       <c r="C29" t="n">
-        <v>210.1</v>
+        <v>235.1</v>
       </c>
       <c r="D29" t="n">
-        <v>777.7</v>
+        <v>235.1</v>
       </c>
       <c r="E29" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212.3000000000001</v>
+        <v>11.633428300095</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.3560596019335</v>
+        <v>0.5</v>
       </c>
       <c r="C30" t="n">
-        <v>204.671049</v>
+        <v>229.6</v>
       </c>
       <c r="D30" t="n">
-        <v>1002.67374</v>
+        <v>464.7</v>
       </c>
       <c r="E30" t="n">
-        <v>66.8308072229751</v>
-      </c>
-      <c r="F30" t="n">
-        <v>224.9737399999999</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.4</v>
+        <v>4.5</v>
       </c>
       <c r="C31" t="n">
-        <v>214.1</v>
+        <v>236.2</v>
       </c>
       <c r="D31" t="n">
-        <v>1216.4</v>
+        <v>690.4</v>
       </c>
       <c r="E31" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>213.7262600000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.3</v>
+        <v>-1</v>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D32" t="n">
-        <v>1433.9</v>
+        <v>942.3</v>
       </c>
       <c r="E32" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>217.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.7</v>
+        <v>0.9</v>
       </c>
       <c r="C33" t="n">
-        <v>214</v>
+        <v>257.1</v>
       </c>
       <c r="D33" t="n">
-        <v>1647.5</v>
+        <v>1245</v>
       </c>
       <c r="E33" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>213.5999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.4</v>
+        <v>-8.5</v>
       </c>
       <c r="C34" t="n">
-        <v>216.5</v>
+        <v>221.2</v>
       </c>
       <c r="D34" t="n">
-        <v>1863.9</v>
+        <v>1466.6</v>
       </c>
       <c r="E34" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>216.4000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.4589693147838</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>211.217206</v>
+        <v>216.6</v>
       </c>
       <c r="D35" t="n">
-        <v>2075.12152</v>
+        <v>1683</v>
       </c>
       <c r="E35" t="n">
-        <v>48.7354850354782</v>
-      </c>
-      <c r="F35" t="n">
-        <v>211.2215200000001</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.8</v>
+        <v>-5.9</v>
       </c>
       <c r="C36" t="n">
-        <v>208.3</v>
+        <v>206.1</v>
       </c>
       <c r="D36" t="n">
-        <v>2295.6</v>
+        <v>1889.2</v>
       </c>
       <c r="E36" t="n">
-        <v>46</v>
-      </c>
-      <c r="F36" t="n">
-        <v>220.4784799999998</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.4</v>
+        <v>-3.9</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7</v>
+        <v>198.8</v>
       </c>
       <c r="D37" t="n">
-        <v>2527.3</v>
+        <v>2088</v>
       </c>
       <c r="E37" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>231.7000000000003</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.164369110435191</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>210.595541</v>
+        <v>242.56</v>
       </c>
       <c r="D38" t="n">
-        <v>210.595541</v>
+        <v>2351.69</v>
       </c>
       <c r="E38" t="n">
-        <v>8.164369110435191</v>
-      </c>
-      <c r="F38" t="n">
-        <v>210.595541</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.8</v>
+        <v>5.15</v>
       </c>
       <c r="C39" t="n">
-        <v>202.4</v>
+        <v>242.32</v>
       </c>
       <c r="D39" t="n">
-        <v>413</v>
+        <v>2594.01</v>
       </c>
       <c r="E39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>202.404459</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.9</v>
+        <v>17.29</v>
       </c>
       <c r="C40" t="n">
-        <v>202.2</v>
+        <v>273.65</v>
       </c>
       <c r="D40" t="n">
-        <v>617.1</v>
+        <v>2867.81</v>
       </c>
       <c r="E40" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>204.1</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>208.1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>825.4</v>
+        <v>524.52</v>
       </c>
       <c r="E41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>208.3</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>7.86</v>
       </c>
       <c r="C42" t="n">
-        <v>219.4</v>
+        <v>287.7</v>
       </c>
       <c r="D42" t="n">
-        <v>1044.8</v>
+        <v>813.0599999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>219.4</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-3.6</v>
+        <v>-3.79</v>
       </c>
       <c r="C43" t="n">
-        <v>207.4</v>
+        <v>221.7</v>
       </c>
       <c r="D43" t="n">
-        <v>1252.3</v>
+        <v>970.85</v>
       </c>
       <c r="E43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>207.5</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-5.8</v>
+        <v>3.63</v>
       </c>
       <c r="C44" t="n">
-        <v>198.8</v>
+        <v>234.6</v>
       </c>
       <c r="D44" t="n">
-        <v>1450.9</v>
+        <v>1246.98</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>198.6000000000001</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-5.6</v>
+        <v>-0.39</v>
       </c>
       <c r="C45" t="n">
-        <v>196.9</v>
+        <v>205.24</v>
       </c>
       <c r="D45" t="n">
-        <v>1647.7</v>
+        <v>1452.22</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>196.8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-12.7</v>
+        <v>-0.64</v>
       </c>
       <c r="C46" t="n">
-        <v>191.5</v>
+        <v>212.15</v>
       </c>
       <c r="D46" t="n">
-        <v>1839.3</v>
+        <v>1660.7</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>191.5999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-7.2</v>
+        <v>6.98</v>
       </c>
       <c r="C47" t="n">
-        <v>193.1</v>
+        <v>223.09</v>
       </c>
       <c r="D47" t="n">
-        <v>2031.4</v>
+        <v>1885.53</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>192.1000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.9</v>
+        <v>15.24</v>
       </c>
       <c r="C48" t="n">
-        <v>208.4</v>
+        <v>223.77</v>
       </c>
       <c r="D48" t="n">
-        <v>2239.2</v>
+        <v>2109.27</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>207.7999999999997</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.1</v>
+        <v>-3.22</v>
       </c>
       <c r="C49" t="n">
-        <v>211.1</v>
+        <v>234.76</v>
       </c>
       <c r="D49" t="n">
-        <v>2450.2</v>
+        <v>2442.98</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>211</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>11.633428300095</v>
+        <v>-3.52</v>
       </c>
       <c r="C50" t="n">
-        <v>235.1</v>
+        <v>233.79</v>
       </c>
       <c r="D50" t="n">
-        <v>235.1</v>
+        <v>2676.77</v>
       </c>
       <c r="E50" t="n">
-        <v>11.633428300095</v>
-      </c>
-      <c r="F50" t="n">
-        <v>235.1</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5</v>
+        <v>-15</v>
       </c>
       <c r="C51" t="n">
-        <v>229.6</v>
+        <v>232.76</v>
       </c>
       <c r="D51" t="n">
-        <v>464.7</v>
+        <v>2909.53</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>229.6</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="C52" t="n">
-        <v>236.2</v>
+        <v>241.73</v>
       </c>
       <c r="D52" t="n">
-        <v>690.4</v>
+        <v>496.4</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>225.7</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>-11.42</v>
       </c>
       <c r="C53" t="n">
-        <v>230</v>
+        <v>254.87</v>
       </c>
       <c r="D53" t="n">
-        <v>942.3</v>
+        <v>757.51</v>
       </c>
       <c r="E53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>251.9</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9</v>
+        <v>11.28</v>
       </c>
       <c r="C54" t="n">
-        <v>257.1</v>
+        <v>246.77</v>
       </c>
       <c r="D54" t="n">
-        <v>1245</v>
+        <v>1004.28</v>
       </c>
       <c r="E54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>302.7</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-8.5</v>
+        <v>3.46</v>
       </c>
       <c r="C55" t="n">
-        <v>221.2</v>
+        <v>242.84</v>
       </c>
       <c r="D55" t="n">
-        <v>1466.6</v>
+        <v>1252.92</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>221.5999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-8.699999999999999</v>
+        <v>10.92</v>
       </c>
       <c r="C56" t="n">
-        <v>216.6</v>
+        <v>227.72</v>
       </c>
       <c r="D56" t="n">
-        <v>1683</v>
+        <v>1480.29</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>216.4000000000001</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-5.9</v>
+        <v>17.02</v>
       </c>
       <c r="C57" t="n">
-        <v>206.1</v>
+        <v>248.43</v>
       </c>
       <c r="D57" t="n">
-        <v>1889.2</v>
+        <v>1728.72</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>206.2</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.9</v>
+        <v>7.34</v>
       </c>
       <c r="C58" t="n">
-        <v>198.8</v>
+        <v>239.53</v>
       </c>
       <c r="D58" t="n">
-        <v>2088</v>
+        <v>1974.81</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>198.8</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3</v>
+        <v>7.93</v>
       </c>
       <c r="C59" t="n">
-        <v>226.5</v>
+        <v>241.55</v>
       </c>
       <c r="D59" t="n">
-        <v>2314.6</v>
+        <v>2208.72</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>226.5999999999999</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4.1</v>
+        <v>-3.84</v>
       </c>
       <c r="C60" t="n">
-        <v>235.8</v>
+        <v>227.836</v>
       </c>
       <c r="D60" t="n">
-        <v>2550.2</v>
+        <v>2312.9873</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>235.5999999999999</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-4.6</v>
+        <v>9.56</v>
       </c>
       <c r="C61" t="n">
-        <v>229.9</v>
+        <v>258.3933</v>
       </c>
       <c r="D61" t="n">
-        <v>2779.7</v>
+        <v>2571.3806</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>229.5</v>
+        <v>-4.57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>260.6632</v>
       </c>
       <c r="D62" t="n">
-        <v>524.52</v>
+        <v>2835.0428</v>
       </c>
       <c r="E62" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F62" t="n">
-        <v>524.52</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.86</v>
+        <v>-12.01</v>
       </c>
       <c r="C63" t="n">
-        <v>287.7</v>
+        <v>215.31</v>
       </c>
       <c r="D63" t="n">
-        <v>813.0599999999999</v>
+        <v>451.18</v>
       </c>
       <c r="E63" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F63" t="n">
-        <v>288.54</v>
+        <v>-10.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-3.79</v>
+        <v>-1.46</v>
       </c>
       <c r="C64" t="n">
-        <v>221.7</v>
+        <v>257.11</v>
       </c>
       <c r="D64" t="n">
-        <v>970.85</v>
+        <v>708.05</v>
       </c>
       <c r="E64" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F64" t="n">
-        <v>157.7900000000001</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.63</v>
+        <v>-11.33</v>
       </c>
       <c r="C65" t="n">
-        <v>234.6</v>
+        <v>225.92</v>
       </c>
       <c r="D65" t="n">
-        <v>1246.98</v>
+        <v>933.67</v>
       </c>
       <c r="E65" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="F65" t="n">
-        <v>276.13</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.39</v>
+        <v>-4.97</v>
       </c>
       <c r="C66" t="n">
-        <v>205.24</v>
+        <v>238.7527</v>
       </c>
       <c r="D66" t="n">
-        <v>1452.22</v>
+        <v>1172.4178</v>
       </c>
       <c r="E66" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>205.24</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.64</v>
+        <v>-0.61</v>
       </c>
       <c r="C67" t="n">
-        <v>212.15</v>
+        <v>230.467</v>
       </c>
       <c r="D67" t="n">
-        <v>1660.7</v>
+        <v>1402.8615</v>
       </c>
       <c r="E67" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F67" t="n">
-        <v>208.48</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.98</v>
+        <v>-3.29</v>
       </c>
       <c r="C68" t="n">
-        <v>223.09</v>
+        <v>235.259</v>
       </c>
       <c r="D68" t="n">
-        <v>1885.53</v>
+        <v>1638.1206</v>
       </c>
       <c r="E68" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>224.8299999999999</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15.24</v>
+        <v>-3.54</v>
       </c>
       <c r="C69" t="n">
-        <v>223.77</v>
+        <v>232.0721</v>
       </c>
       <c r="D69" t="n">
-        <v>2109.27</v>
+        <v>1870.1928</v>
       </c>
       <c r="E69" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F69" t="n">
-        <v>223.74</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.5</v>
+        <v>-11.64</v>
       </c>
       <c r="C70" t="n">
-        <v>242.56</v>
+        <v>214.695</v>
       </c>
       <c r="D70" t="n">
-        <v>2351.69</v>
+        <v>2084.0699</v>
       </c>
       <c r="E70" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F70" t="n">
-        <v>242.4200000000001</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5.15</v>
+        <v>19.3</v>
       </c>
       <c r="C71" t="n">
-        <v>242.32</v>
+        <v>282</v>
       </c>
       <c r="D71" t="n">
-        <v>2594.01</v>
+        <v>2701.6</v>
       </c>
       <c r="E71" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="F71" t="n">
-        <v>242.3200000000002</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17.29</v>
+        <v>2.2</v>
       </c>
       <c r="C72" t="n">
-        <v>273.65</v>
+        <v>277.1</v>
       </c>
       <c r="D72" t="n">
-        <v>2867.81</v>
+        <v>2990.8</v>
       </c>
       <c r="E72" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F72" t="n">
-        <v>273.7999999999997</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3.82</v>
+        <v>5.6</v>
       </c>
       <c r="C73" t="n">
-        <v>241.73</v>
+        <v>285.2</v>
       </c>
       <c r="D73" t="n">
-        <v>496.4</v>
+        <v>3282.4</v>
       </c>
       <c r="E73" t="n">
-        <v>-4.29</v>
-      </c>
-      <c r="F73" t="n">
-        <v>496.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-11.42</v>
-      </c>
-      <c r="C74" t="n">
-        <v>254.87</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>757.51</v>
+        <v>506.584</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.85</v>
-      </c>
-      <c r="F74" t="n">
-        <v>261.11</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11.28</v>
+        <v>5.25</v>
       </c>
       <c r="C75" t="n">
-        <v>246.77</v>
+        <v>267.3282</v>
       </c>
       <c r="D75" t="n">
-        <v>1004.28</v>
+        <v>781.4104</v>
       </c>
       <c r="E75" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F75" t="n">
-        <v>246.77</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.46</v>
+        <v>16.8</v>
       </c>
       <c r="C76" t="n">
-        <v>242.84</v>
+        <v>264.4</v>
       </c>
       <c r="D76" t="n">
-        <v>1252.92</v>
+        <v>1045.5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F76" t="n">
-        <v>248.6400000000001</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>10.92</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>227.72</v>
+        <v>266.9</v>
       </c>
       <c r="D77" t="n">
-        <v>1480.29</v>
+        <v>1312.5</v>
       </c>
       <c r="E77" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F77" t="n">
-        <v>227.3699999999999</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>17.02</v>
+        <v>15.7</v>
       </c>
       <c r="C78" t="n">
-        <v>248.43</v>
+        <v>266.8</v>
       </c>
       <c r="D78" t="n">
-        <v>1728.72</v>
+        <v>1584.7</v>
       </c>
       <c r="E78" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F78" t="n">
-        <v>248.4300000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.34</v>
+        <v>18.6</v>
       </c>
       <c r="C79" t="n">
-        <v>239.53</v>
+        <v>283.2</v>
       </c>
       <c r="D79" t="n">
-        <v>1974.81</v>
+        <v>1902.6</v>
       </c>
       <c r="E79" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="F79" t="n">
-        <v>246.0899999999999</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.93</v>
+        <v>8.1</v>
       </c>
       <c r="C80" t="n">
-        <v>241.55</v>
+        <v>256.7</v>
       </c>
       <c r="D80" t="n">
-        <v>2208.72</v>
+        <v>2163.8</v>
       </c>
       <c r="E80" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F80" t="n">
-        <v>233.9099999999999</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3.22</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
-        <v>234.76</v>
+        <v>255.7</v>
       </c>
       <c r="D81" t="n">
-        <v>2442.98</v>
+        <v>2419.6</v>
       </c>
       <c r="E81" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F81" t="n">
-        <v>234.2600000000002</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-3.52</v>
+        <v>2.3</v>
       </c>
       <c r="C82" t="n">
-        <v>233.79</v>
+        <v>291.5</v>
       </c>
       <c r="D82" t="n">
-        <v>2676.77</v>
+        <v>2793.2</v>
       </c>
       <c r="E82" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F82" t="n">
-        <v>233.79</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-15</v>
+        <v>-1.5</v>
       </c>
       <c r="C83" t="n">
-        <v>232.76</v>
+        <v>274.5</v>
       </c>
       <c r="D83" t="n">
-        <v>2909.53</v>
+        <v>3067.6</v>
       </c>
       <c r="E83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F83" t="n">
-        <v>232.7600000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-12.01</v>
+        <v>5.8</v>
       </c>
       <c r="C84" t="n">
-        <v>215.31</v>
+        <v>303.4</v>
       </c>
       <c r="D84" t="n">
-        <v>451.18</v>
+        <v>3401.2</v>
       </c>
       <c r="E84" t="n">
-        <v>-10.17</v>
-      </c>
-      <c r="F84" t="n">
-        <v>451.18</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="C85" t="n">
-        <v>257.11</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>708.05</v>
+        <v>571.2</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.35</v>
-      </c>
-      <c r="F85" t="n">
-        <v>256.8699999999999</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-11.33</v>
+        <v>6.3</v>
       </c>
       <c r="C86" t="n">
-        <v>225.92</v>
+        <v>292.1</v>
       </c>
       <c r="D86" t="n">
-        <v>933.67</v>
+        <v>866.5</v>
       </c>
       <c r="E86" t="n">
-        <v>-8.369999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>225.62</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-4.97</v>
+        <v>-0.3</v>
       </c>
       <c r="C87" t="n">
-        <v>238.7527</v>
+        <v>272.7</v>
       </c>
       <c r="D87" t="n">
-        <v>1172.4178</v>
+        <v>1139.2</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>238.7478</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.61</v>
+        <v>2.6</v>
       </c>
       <c r="C88" t="n">
-        <v>230.467</v>
+        <v>280.4</v>
       </c>
       <c r="D88" t="n">
-        <v>1402.8615</v>
+        <v>1419.6</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.54</v>
-      </c>
-      <c r="F88" t="n">
-        <v>230.4437</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-3.29</v>
+        <v>-2.8</v>
       </c>
       <c r="C89" t="n">
-        <v>235.259</v>
+        <v>265.1</v>
       </c>
       <c r="D89" t="n">
-        <v>1638.1206</v>
+        <v>1686</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.09</v>
-      </c>
-      <c r="F89" t="n">
-        <v>235.2591</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-3.54</v>
+        <v>-6.6</v>
       </c>
       <c r="C90" t="n">
-        <v>232.0721</v>
+        <v>270.1</v>
       </c>
       <c r="D90" t="n">
-        <v>1870.1928</v>
+        <v>1956.1</v>
       </c>
       <c r="E90" t="n">
-        <v>-5.84</v>
-      </c>
-      <c r="F90" t="n">
-        <v>232.0722000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-11.64</v>
+        <v>7.1</v>
       </c>
       <c r="C91" t="n">
-        <v>214.695</v>
+        <v>276.9</v>
       </c>
       <c r="D91" t="n">
-        <v>2084.0699</v>
+        <v>2232.9</v>
       </c>
       <c r="E91" t="n">
-        <v>-6.19</v>
-      </c>
-      <c r="F91" t="n">
-        <v>213.8770999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-3.84</v>
+        <v>1.6</v>
       </c>
       <c r="C92" t="n">
-        <v>227.836</v>
+        <v>262.1</v>
       </c>
       <c r="D92" t="n">
-        <v>2312.9873</v>
+        <v>2497.7</v>
       </c>
       <c r="E92" t="n">
-        <v>-5.92</v>
-      </c>
-      <c r="F92" t="n">
-        <v>228.9173999999998</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9.56</v>
+        <v>6.1</v>
       </c>
       <c r="C93" t="n">
-        <v>258.3933</v>
+        <v>310.3</v>
       </c>
       <c r="D93" t="n">
-        <v>2571.3806</v>
+        <v>2933</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.57</v>
-      </c>
-      <c r="F93" t="n">
-        <v>258.3933000000002</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>11.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>260.6632</v>
+        <v>301.6</v>
       </c>
       <c r="D94" t="n">
-        <v>2835.0428</v>
+        <v>3220.3</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="F94" t="n">
-        <v>263.6622000000002</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>356.6</v>
+      </c>
       <c r="D95" t="n">
-        <v>506.584</v>
+        <v>3582.6</v>
       </c>
       <c r="E95" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="F95" t="n">
-        <v>506.584</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="C96" t="n">
-        <v>267.3282</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>781.4104</v>
+        <v>552.8</v>
       </c>
       <c r="E96" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="F96" t="n">
-        <v>274.8264</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>16.8</v>
+        <v>7.7</v>
       </c>
       <c r="C97" t="n">
-        <v>264.4</v>
+        <v>317.2</v>
       </c>
       <c r="D97" t="n">
-        <v>1045.5</v>
+        <v>916.8</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>264.0896</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11.7</v>
+        <v>5.7</v>
       </c>
       <c r="C98" t="n">
-        <v>266.9</v>
+        <v>292</v>
       </c>
       <c r="D98" t="n">
-        <v>1312.5</v>
+        <v>1196.6</v>
       </c>
       <c r="E98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>267</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>15.7</v>
+        <v>-2.3</v>
       </c>
       <c r="C99" t="n">
-        <v>266.8</v>
+        <v>277.9</v>
       </c>
       <c r="D99" t="n">
-        <v>1584.7</v>
+        <v>1474.4</v>
       </c>
       <c r="E99" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F99" t="n">
-        <v>272.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>18.6</v>
+        <v>3.7</v>
       </c>
       <c r="C100" t="n">
-        <v>283.2</v>
+        <v>279</v>
       </c>
       <c r="D100" t="n">
-        <v>1902.6</v>
+        <v>1755</v>
       </c>
       <c r="E100" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>317.8999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>256.7</v>
+        <v>300.7</v>
       </c>
       <c r="D101" t="n">
-        <v>2163.8</v>
+        <v>2055.7</v>
       </c>
       <c r="E101" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F101" t="n">
-        <v>261.2000000000003</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>-4.6</v>
       </c>
       <c r="C102" t="n">
-        <v>255.7</v>
+        <v>268</v>
       </c>
       <c r="D102" t="n">
-        <v>2419.6</v>
+        <v>2323.6</v>
       </c>
       <c r="E102" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>255.7999999999997</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>19.3</v>
+        <v>11.6</v>
       </c>
       <c r="C103" t="n">
-        <v>282</v>
+        <v>297.2</v>
       </c>
       <c r="D103" t="n">
-        <v>2701.6</v>
+        <v>2630.3</v>
       </c>
       <c r="E103" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>282</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.2</v>
+        <v>-1.3</v>
       </c>
       <c r="C104" t="n">
-        <v>277.1</v>
+        <v>324.7</v>
       </c>
       <c r="D104" t="n">
-        <v>2990.8</v>
+        <v>3195.7</v>
       </c>
       <c r="E104" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>289.2000000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5.6</v>
+        <v>-2.6</v>
       </c>
       <c r="C105" t="n">
-        <v>285.2</v>
+        <v>312.7</v>
       </c>
       <c r="D105" t="n">
-        <v>3282.4</v>
+        <v>3508.4</v>
       </c>
       <c r="E105" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>291.5999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>345.5</v>
+      </c>
       <c r="D106" t="n">
-        <v>571.2</v>
+        <v>3896.5</v>
       </c>
       <c r="E106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>571.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>292.1</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>866.5</v>
+        <v>593.5</v>
       </c>
       <c r="E107" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>295.3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.3</v>
+        <v>1.9</v>
       </c>
       <c r="C108" t="n">
-        <v>272.7</v>
+        <v>319</v>
       </c>
       <c r="D108" t="n">
-        <v>1139.2</v>
+        <v>926.2</v>
       </c>
       <c r="E108" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>272.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.6</v>
+        <v>-4.7</v>
       </c>
       <c r="C109" t="n">
-        <v>280.4</v>
+        <v>297.3</v>
       </c>
       <c r="D109" t="n">
-        <v>1419.6</v>
+        <v>1227.7</v>
       </c>
       <c r="E109" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>280.3999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-2.8</v>
+        <v>1.7</v>
       </c>
       <c r="C110" t="n">
-        <v>265.1</v>
+        <v>298</v>
       </c>
       <c r="D110" t="n">
-        <v>1686</v>
+        <v>1526.3</v>
       </c>
       <c r="E110" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>266.4000000000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-6.6</v>
+        <v>9.9</v>
       </c>
       <c r="C111" t="n">
-        <v>270.1</v>
+        <v>316.2</v>
       </c>
       <c r="D111" t="n">
-        <v>1956.1</v>
+        <v>1870.5</v>
       </c>
       <c r="E111" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>270.0999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>7.1</v>
+        <v>-2.1</v>
       </c>
       <c r="C112" t="n">
-        <v>276.9</v>
+        <v>302.4</v>
       </c>
       <c r="D112" t="n">
-        <v>2232.9</v>
+        <v>2172.8</v>
       </c>
       <c r="E112" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>276.8000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.6</v>
+        <v>11.9</v>
       </c>
       <c r="C113" t="n">
-        <v>262.1</v>
+        <v>312</v>
       </c>
       <c r="D113" t="n">
-        <v>2497.7</v>
+        <v>2520.5</v>
       </c>
       <c r="E113" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>264.7999999999997</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="C114" t="n">
-        <v>291.5</v>
+        <v>326.2</v>
       </c>
       <c r="D114" t="n">
-        <v>2793.2</v>
+        <v>2872.6</v>
       </c>
       <c r="E114" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>295.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1.5</v>
+        <v>8.4</v>
       </c>
       <c r="C115" t="n">
-        <v>274.5</v>
+        <v>376.9</v>
       </c>
       <c r="D115" t="n">
-        <v>3067.6</v>
+        <v>3438.6</v>
       </c>
       <c r="E115" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>274.4000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.8</v>
+        <v>16.3</v>
       </c>
       <c r="C116" t="n">
-        <v>303.4</v>
+        <v>398.2</v>
       </c>
       <c r="D116" t="n">
-        <v>3401.2</v>
+        <v>3839</v>
       </c>
       <c r="E116" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>333.5999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>393.2</v>
+      </c>
       <c r="D117" t="n">
-        <v>552.8</v>
+        <v>4232</v>
       </c>
       <c r="E117" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>552.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>317.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>916.8</v>
+        <v>661.8</v>
       </c>
       <c r="E118" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>364</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="C119" t="n">
-        <v>292</v>
+        <v>327.5</v>
       </c>
       <c r="D119" t="n">
-        <v>1196.6</v>
+        <v>975.6</v>
       </c>
       <c r="E119" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>279.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-2.3</v>
+        <v>5.7</v>
       </c>
       <c r="C120" t="n">
-        <v>277.9</v>
+        <v>336.7</v>
       </c>
       <c r="D120" t="n">
-        <v>1474.4</v>
+        <v>1314.7</v>
       </c>
       <c r="E120" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F120" t="n">
-        <v>277.8000000000002</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>279</v>
+        <v>322.2</v>
       </c>
       <c r="D121" t="n">
-        <v>1755</v>
+        <v>1638.9</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>280.5999999999999</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9.699999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="C122" t="n">
-        <v>300.7</v>
+        <v>323.4</v>
       </c>
       <c r="D122" t="n">
-        <v>2055.7</v>
+        <v>1966.5</v>
       </c>
       <c r="E122" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>300.6999999999998</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-4.6</v>
+        <v>12.6</v>
       </c>
       <c r="C123" t="n">
-        <v>268</v>
+        <v>353.5</v>
       </c>
       <c r="D123" t="n">
-        <v>2323.6</v>
+        <v>2320.1</v>
       </c>
       <c r="E123" t="n">
         <v>2.9</v>
       </c>
-      <c r="F123" t="n">
-        <v>267.9000000000001</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11.6</v>
+        <v>8.1</v>
       </c>
       <c r="C124" t="n">
-        <v>297.2</v>
+        <v>349.9</v>
       </c>
       <c r="D124" t="n">
-        <v>2630.3</v>
+        <v>2670</v>
       </c>
       <c r="E124" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>306.7000000000003</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C125" t="n">
-        <v>310.3</v>
+        <v>375.6</v>
       </c>
       <c r="D125" t="n">
-        <v>2933</v>
+        <v>3049.8</v>
       </c>
       <c r="E125" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>302.6999999999998</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>9.300000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="C126" t="n">
-        <v>301.6</v>
+        <v>452.8</v>
       </c>
       <c r="D126" t="n">
-        <v>3220.3</v>
+        <v>3979.7</v>
       </c>
       <c r="E126" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>287.3000000000002</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="C127" t="n">
-        <v>356.6</v>
+        <v>481.8</v>
       </c>
       <c r="D127" t="n">
-        <v>3582.6</v>
+        <v>4461.4</v>
       </c>
       <c r="E127" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>362.2999999999997</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>493.9</v>
+      </c>
       <c r="D128" t="n">
-        <v>593.5</v>
+        <v>4951.7</v>
       </c>
       <c r="E128" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>593.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>319</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>926.2</v>
+        <v>785.7</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>332.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-4.7</v>
+        <v>22.2</v>
       </c>
       <c r="C130" t="n">
-        <v>297.3</v>
+        <v>417.8</v>
       </c>
       <c r="D130" t="n">
-        <v>1227.7</v>
+        <v>1205.9</v>
       </c>
       <c r="E130" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>301.5</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="C131" t="n">
-        <v>298</v>
+        <v>350.6</v>
       </c>
       <c r="D131" t="n">
-        <v>1526.3</v>
+        <v>1556.9</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>298.5999999999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9.9</v>
+        <v>16.7</v>
       </c>
       <c r="C132" t="n">
-        <v>316.2</v>
+        <v>395.1</v>
       </c>
       <c r="D132" t="n">
-        <v>1870.5</v>
+        <v>1953.2</v>
       </c>
       <c r="E132" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>344.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-2.1</v>
+        <v>8.4</v>
       </c>
       <c r="C133" t="n">
-        <v>302.4</v>
+        <v>371.1</v>
       </c>
       <c r="D133" t="n">
-        <v>2172.8</v>
+        <v>2318.5</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>302.3000000000002</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>11.9</v>
+        <v>3.4</v>
       </c>
       <c r="C134" t="n">
-        <v>312</v>
+        <v>382.2</v>
       </c>
       <c r="D134" t="n">
-        <v>2520.5</v>
+        <v>2701.4</v>
       </c>
       <c r="E134" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>347.6999999999998</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>326.2</v>
+        <v>391</v>
       </c>
       <c r="D135" t="n">
-        <v>2872.6</v>
+        <v>3104.7</v>
       </c>
       <c r="E135" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>352.0999999999999</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1.3</v>
+        <v>7.4</v>
       </c>
       <c r="C136" t="n">
-        <v>324.7</v>
+        <v>422.1</v>
       </c>
       <c r="D136" t="n">
-        <v>3195.7</v>
+        <v>3526.9</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>323.0999999999999</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-2.6</v>
+        <v>4.4</v>
       </c>
       <c r="C137" t="n">
-        <v>312.7</v>
+        <v>507</v>
       </c>
       <c r="D137" t="n">
-        <v>3508.4</v>
+        <v>4722.8</v>
       </c>
       <c r="E137" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F137" t="n">
-        <v>312.7000000000003</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-6.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C138" t="n">
-        <v>345.5</v>
+        <v>508.8</v>
       </c>
       <c r="D138" t="n">
-        <v>3896.5</v>
+        <v>5289.9</v>
       </c>
       <c r="E138" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F138" t="n">
-        <v>388.0999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>533.9</v>
+      </c>
       <c r="D139" t="n">
-        <v>661.8</v>
+        <v>5893.3</v>
       </c>
       <c r="E139" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>661.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>327.5</v>
-      </c>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>975.6</v>
+        <v>897.9</v>
       </c>
       <c r="E140" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>313.8000000000001</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="C141" t="n">
-        <v>336.7</v>
+        <v>440.1</v>
       </c>
       <c r="D141" t="n">
-        <v>1314.7</v>
+        <v>1337.9</v>
       </c>
       <c r="E141" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>339.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C142" t="n">
-        <v>322.2</v>
+        <v>403.5</v>
       </c>
       <c r="D142" t="n">
-        <v>1638.9</v>
+        <v>1741.4</v>
       </c>
       <c r="E142" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>324.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1.4</v>
+        <v>2.5</v>
       </c>
       <c r="C143" t="n">
-        <v>323.4</v>
+        <v>404.8</v>
       </c>
       <c r="D143" t="n">
-        <v>1966.5</v>
+        <v>2146.2</v>
       </c>
       <c r="E143" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>327.5999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="C144" t="n">
-        <v>353.5</v>
+        <v>435.3</v>
       </c>
       <c r="D144" t="n">
-        <v>2320.1</v>
+        <v>2724.9</v>
       </c>
       <c r="E144" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>353.5999999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="C145" t="n">
-        <v>349.9</v>
+        <v>417.2</v>
       </c>
       <c r="D145" t="n">
-        <v>2670</v>
+        <v>3069.1</v>
       </c>
       <c r="E145" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>349.9000000000001</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="C146" t="n">
-        <v>375.6</v>
+        <v>431.6</v>
       </c>
       <c r="D146" t="n">
-        <v>3049.8</v>
+        <v>3596.3</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>379.8000000000002</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="C147" t="n">
-        <v>376.9</v>
+        <v>498</v>
       </c>
       <c r="D147" t="n">
-        <v>3438.6</v>
+        <v>4215.8</v>
       </c>
       <c r="E147" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>388.7999999999997</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C148" t="n">
-        <v>398.2</v>
-      </c>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>3839</v>
+        <v>1041.5</v>
       </c>
       <c r="E148" t="n">
-        <v>6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>400.4000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>11.2</v>
+        <v>23.3</v>
       </c>
       <c r="C149" t="n">
-        <v>393.2</v>
+        <v>586.4</v>
       </c>
       <c r="D149" t="n">
-        <v>4232</v>
+        <v>1632</v>
       </c>
       <c r="E149" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>393</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>537.2</v>
+      </c>
       <c r="D150" t="n">
-        <v>785.7</v>
+        <v>2202.9</v>
       </c>
       <c r="E150" t="n">
-        <v>14</v>
-      </c>
-      <c r="F150" t="n">
-        <v>785.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>22.2</v>
+        <v>25.1</v>
       </c>
       <c r="C151" t="n">
-        <v>417.8</v>
+        <v>580.4</v>
       </c>
       <c r="D151" t="n">
-        <v>1205.9</v>
+        <v>2903.6</v>
       </c>
       <c r="E151" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>420.2</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.2</v>
+        <v>48.4</v>
       </c>
       <c r="C152" t="n">
-        <v>350.6</v>
+        <v>698.1</v>
       </c>
       <c r="D152" t="n">
-        <v>1556.9</v>
+        <v>3622</v>
       </c>
       <c r="E152" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>395.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1953.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>396.3</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>371.1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2318.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F154" t="n">
-        <v>365.3</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2701.4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>382.9000000000001</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>391</v>
-      </c>
-      <c r="D156" t="n">
-        <v>3104.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>403.2999999999997</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>422.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>3526.9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>422.2000000000003</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>452.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>3979.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>452.7999999999997</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>481.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4461.4</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>481.6999999999998</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>493.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>4951.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F160" t="n">
-        <v>490.3000000000002</v>
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>
